--- a/exercise/운동기록.xlsx
+++ b/exercise/운동기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seung Jae Han\Dropbox\Trivia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E1F884-1FEE-46C4-97E2-16960D09083D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54A1777-F2E1-4E0F-B485-77787FDD2C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
   <si>
     <t>DATETIME</t>
   </si>
@@ -432,11 +432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1029,6 +1029,35 @@
         <v>12</v>
       </c>
     </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B21" s="3">
+        <v>100</v>
+      </c>
+      <c r="C21" s="3">
+        <v>106</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>82.1</v>
+      </c>
+      <c r="H21" s="3">
+        <v>28.7</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exercise/운동기록.xlsx
+++ b/exercise/운동기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seung Jae Han\Dropbox\Trivia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54A1777-F2E1-4E0F-B485-77787FDD2C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7294C0BE-E3F5-4D8B-A85A-A0316D91A126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
   <si>
     <t>DATETIME</t>
   </si>
@@ -432,11 +432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1058,6 +1058,35 @@
         <v>12</v>
       </c>
     </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B22" s="3">
+        <v>99</v>
+      </c>
+      <c r="C22" s="3">
+        <v>107</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exercise/운동기록.xlsx
+++ b/exercise/운동기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seung Jae Han\Dropbox\Trivia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7294C0BE-E3F5-4D8B-A85A-A0316D91A126}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCC2861-2064-4DE4-9783-9C28A6F8F6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
   <si>
     <t>DATETIME</t>
   </si>
@@ -432,11 +432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1087,6 +1087,35 @@
         <v>12</v>
       </c>
     </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B23" s="3">
+        <v>100</v>
+      </c>
+      <c r="C23" s="3">
+        <v>105</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>82.6</v>
+      </c>
+      <c r="H23" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exercise/운동기록.xlsx
+++ b/exercise/운동기록.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seung Jae Han\Dropbox\Trivia\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seung Jae Han\Dropbox\Trivia\운동기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCC2861-2064-4DE4-9783-9C28A6F8F6F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449E2E2B-BD4A-42F4-A710-7B1204D597E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
   <si>
     <t>DATETIME</t>
   </si>
@@ -432,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1116,6 +1116,64 @@
         <v>12</v>
       </c>
     </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="2">
+        <v>44009</v>
+      </c>
+      <c r="B24" s="3">
+        <v>98.5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>104</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>83.3</v>
+      </c>
+      <c r="H24" s="3">
+        <v>29.2</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="2">
+        <v>44010</v>
+      </c>
+      <c r="B25" s="3">
+        <v>98</v>
+      </c>
+      <c r="C25" s="3">
+        <v>104</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0</v>
+      </c>
+      <c r="G25" s="3">
+        <v>83.8</v>
+      </c>
+      <c r="H25" s="3">
+        <v>29.3</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exercise/운동기록.xlsx
+++ b/exercise/운동기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seung Jae Han\Dropbox\Trivia\운동기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449E2E2B-BD4A-42F4-A710-7B1204D597E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBDD0F0-3DC1-43F8-BC0D-5BACE5133D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="18">
   <si>
     <t>DATETIME</t>
   </si>
@@ -43,6 +43,15 @@
     <t>WEIGHT</t>
   </si>
   <si>
+    <t>WHTR</t>
+  </si>
+  <si>
+    <t>WHTR_IMPROVEMENT</t>
+  </si>
+  <si>
+    <t>WHTR_CHANGE</t>
+  </si>
+  <si>
     <t>BMI</t>
   </si>
   <si>
@@ -55,13 +64,13 @@
     <t>NA</t>
   </si>
   <si>
+    <t>IMPROVED</t>
+  </si>
+  <si>
     <t>SAME</t>
   </si>
   <si>
     <t>OVERWEIGHT</t>
-  </si>
-  <si>
-    <t>IMPROVED</t>
   </si>
   <si>
     <t>WORSENED</t>
@@ -432,27 +441,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +492,17 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2">
         <v>43987</v>
       </c>
@@ -495,19 +516,25 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2">
         <v>43988</v>
       </c>
@@ -518,25 +545,34 @@
         <v>107</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.62</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2">
         <v>43989</v>
       </c>
@@ -547,25 +583,34 @@
         <v>105</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G4" s="3">
         <v>82.6</v>
       </c>
       <c r="H4" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.03</v>
+      </c>
+      <c r="K4" s="3">
         <v>28.9</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="L4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2">
         <v>43990</v>
       </c>
@@ -576,25 +621,34 @@
         <v>106</v>
       </c>
       <c r="D5" s="3">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="G5" s="3">
         <v>83</v>
       </c>
       <c r="H5" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
         <v>29.1</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="L5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2">
         <v>43991</v>
       </c>
@@ -605,25 +659,34 @@
         <v>105</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F6" s="3">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="G6" s="3">
         <v>82.1</v>
       </c>
       <c r="H6" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
         <v>28.7</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="L6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2">
         <v>43992</v>
       </c>
@@ -634,10 +697,10 @@
         <v>105.3</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -646,13 +709,22 @@
         <v>82.5</v>
       </c>
       <c r="H7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K7" s="3">
         <v>28.9</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="L7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2">
         <v>43993</v>
       </c>
@@ -663,25 +735,34 @@
         <v>105.7</v>
       </c>
       <c r="D8" s="3">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="G8" s="3">
         <v>81.900000000000006</v>
       </c>
       <c r="H8" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="K8" s="3">
         <v>28.7</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="L8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2">
         <v>43994</v>
       </c>
@@ -692,25 +773,34 @@
         <v>105.4</v>
       </c>
       <c r="D9" s="3">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G9" s="3">
         <v>82.2</v>
       </c>
       <c r="H9" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K9" s="3">
         <v>28.8</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="L9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2">
         <v>43995</v>
       </c>
@@ -721,25 +811,34 @@
         <v>105.2</v>
       </c>
       <c r="D10" s="3">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G10" s="3">
         <v>82.5</v>
       </c>
       <c r="H10" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K10" s="3">
         <v>28.9</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="L10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2">
         <v>43996</v>
       </c>
@@ -750,25 +849,34 @@
         <v>105</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11" s="3">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="G11" s="3">
         <v>82.3</v>
       </c>
       <c r="H11" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K11" s="3">
         <v>28.8</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="L11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2">
         <v>43997</v>
       </c>
@@ -779,25 +887,34 @@
         <v>105</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F12" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G12" s="3">
         <v>82.5</v>
       </c>
       <c r="H12" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>28.9</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="L12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2">
         <v>43998</v>
       </c>
@@ -808,25 +925,34 @@
         <v>106.5</v>
       </c>
       <c r="D13" s="3">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F13" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="G13" s="3">
         <v>82.7</v>
       </c>
       <c r="H13" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3">
         <v>29</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="L13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2">
         <v>43999</v>
       </c>
@@ -837,25 +963,34 @@
         <v>107.5</v>
       </c>
       <c r="D14" s="3">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="G14" s="3">
         <v>83.5</v>
       </c>
       <c r="H14" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K14" s="3">
         <v>29.2</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="L14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2">
         <v>44000</v>
       </c>
@@ -866,10 +1001,10 @@
         <v>106.5</v>
       </c>
       <c r="D15" s="3">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -878,13 +1013,22 @@
         <v>83.3</v>
       </c>
       <c r="H15" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>29.2</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="L15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2">
         <v>44001</v>
       </c>
@@ -895,25 +1039,34 @@
         <v>105.5</v>
       </c>
       <c r="D16" s="3">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F16" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G16" s="3">
         <v>82.1</v>
       </c>
       <c r="H16" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K16" s="3">
         <v>28.7</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="L16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2">
         <v>44002</v>
       </c>
@@ -924,25 +1077,34 @@
         <v>106</v>
       </c>
       <c r="D17" s="3">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G17" s="3">
         <v>81.400000000000006</v>
       </c>
       <c r="H17" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K17" s="3">
         <v>28.5</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="L17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2">
         <v>44003</v>
       </c>
@@ -953,10 +1115,10 @@
         <v>107</v>
       </c>
       <c r="D18" s="3">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
@@ -965,13 +1127,22 @@
         <v>81.8</v>
       </c>
       <c r="H18" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K18" s="3">
         <v>28.6</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="L18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2">
         <v>44004</v>
       </c>
@@ -982,10 +1153,10 @@
         <v>107.5</v>
       </c>
       <c r="D19" s="3">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
@@ -994,13 +1165,22 @@
         <v>83</v>
       </c>
       <c r="H19" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
         <v>29.1</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="L19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="2">
         <v>44005</v>
       </c>
@@ -1011,25 +1191,34 @@
         <v>106.5</v>
       </c>
       <c r="D20" s="3">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G20" s="3">
         <v>82.6</v>
       </c>
       <c r="H20" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>28.9</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="L20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="2">
         <v>44006</v>
       </c>
@@ -1040,10 +1229,10 @@
         <v>106</v>
       </c>
       <c r="D21" s="3">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -1052,13 +1241,22 @@
         <v>82.1</v>
       </c>
       <c r="H21" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>28.7</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="L21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="2">
         <v>44007</v>
       </c>
@@ -1069,25 +1267,34 @@
         <v>107</v>
       </c>
       <c r="D22" s="3">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G22" s="3">
         <v>82.4</v>
       </c>
       <c r="H22" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>28.9</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="L22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="2">
         <v>44008</v>
       </c>
@@ -1098,25 +1305,34 @@
         <v>105</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F23" s="3">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="G23" s="3">
         <v>82.6</v>
       </c>
       <c r="H23" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>28.9</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="L23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="2">
         <v>44009</v>
       </c>
@@ -1127,25 +1343,34 @@
         <v>104</v>
       </c>
       <c r="D24" s="3">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F24" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>83.3</v>
       </c>
       <c r="H24" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K24" s="3">
         <v>29.2</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="L24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="2">
         <v>44010</v>
       </c>
@@ -1156,22 +1381,69 @@
         <v>104</v>
       </c>
       <c r="D25" s="3">
-        <v>0.9</v>
+        <v>0.94</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F25" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G25" s="3">
         <v>83.8</v>
       </c>
       <c r="H25" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="3">
         <v>29.3</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>12</v>
+      <c r="L25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B26" s="3">
+        <v>97.5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>103</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G26" s="3">
+        <v>82.7</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
+        <v>29</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/exercise/운동기록.xlsx
+++ b/exercise/운동기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seung Jae Han\Dropbox\Trivia\운동기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBDD0F0-3DC1-43F8-BC0D-5BACE5133D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D99705B-6417-4CD7-B57C-8B1A218177FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="18">
   <si>
     <t>DATETIME</t>
   </si>
@@ -441,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1446,6 +1446,44 @@
         <v>16</v>
       </c>
     </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B27" s="3">
+        <v>98.5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>106</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="G27" s="3">
+        <v>82.5</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exercise/운동기록.xlsx
+++ b/exercise/운동기록.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seung Jae Han\Dropbox\Trivia\운동기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D99705B-6417-4CD7-B57C-8B1A218177FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E138D392-C76E-4315-8B54-16780E767A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="운동기록" sheetId="1" r:id="rId1"/>
+    <sheet name="SEUNGJAE_HAN.&quot;운동기록&quot;" sheetId="1" r:id="rId1"/>
+    <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="19">
   <si>
     <t>DATETIME</t>
   </si>
@@ -74,6 +75,9 @@
   </si>
   <si>
     <t>WORSENED</t>
+  </si>
+  <si>
+    <t>select DATETIME DATETIME, WAIST WAIST, HIP HIP, WHR WHR, WHR_IMPROVEMENT WHR_IMPROVEMENT, WHR_CHANGE WHR_CHANGE, WEIGHT WEIGHT, WHTR WHTR, WHTR_IMPROVEMENT WHTR_IMPROVEMENT, WHTR_CHANGE WHTR_CHANGE, BMI BMI, OBESITY OBESITY from (select * from "SEUNGJAE_HAN"."운동기록")</t>
   </si>
 </sst>
 </file>
@@ -441,7 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L27"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1484,6 +1491,62 @@
         <v>16</v>
       </c>
     </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B28" s="3">
+        <v>97.5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>104.5</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.93</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3">
+        <v>0</v>
+      </c>
+      <c r="G28" s="3">
+        <v>82.6</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>28.9</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/exercise/운동기록.xlsx
+++ b/exercise/운동기록.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seung Jae Han\Dropbox\Trivia\운동기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E138D392-C76E-4315-8B54-16780E767A13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC5E57-0341-47F6-AD96-3DEA0E9D67F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="0" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SEUNGJAE_HAN.&quot;운동기록&quot;" sheetId="1" r:id="rId1"/>
-    <sheet name="SQL" sheetId="2" r:id="rId2"/>
+    <sheet name="운동기록" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="18">
   <si>
     <t>DATETIME</t>
   </si>
@@ -75,9 +74,6 @@
   </si>
   <si>
     <t>WORSENED</t>
-  </si>
-  <si>
-    <t>select DATETIME DATETIME, WAIST WAIST, HIP HIP, WHR WHR, WHR_IMPROVEMENT WHR_IMPROVEMENT, WHR_CHANGE WHR_CHANGE, WEIGHT WEIGHT, WHTR WHTR, WHTR_IMPROVEMENT WHTR_IMPROVEMENT, WHTR_CHANGE WHTR_CHANGE, BMI BMI, OBESITY OBESITY from (select * from "SEUNGJAE_HAN"."운동기록")</t>
   </si>
 </sst>
 </file>
@@ -445,14 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -529,7 +522,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="3">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>12</v>
@@ -564,7 +557,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="3">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
@@ -608,10 +601,10 @@
         <v>14</v>
       </c>
       <c r="J4" s="3">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="K4" s="3">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>16</v>
@@ -640,16 +633,16 @@
         <v>83</v>
       </c>
       <c r="H5" s="3">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K5" s="3">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>16</v>
@@ -681,13 +674,13 @@
         <v>0.59</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J6" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K6" s="3">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>16</v>
@@ -716,16 +709,16 @@
         <v>82.5</v>
       </c>
       <c r="H7" s="3">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J7" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K7" s="3">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>16</v>
@@ -760,10 +753,10 @@
         <v>14</v>
       </c>
       <c r="J8" s="3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="K8" s="3">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>16</v>
@@ -792,16 +785,16 @@
         <v>82.2</v>
       </c>
       <c r="H9" s="3">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K9" s="3">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>16</v>
@@ -833,13 +826,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>16</v>
@@ -877,7 +870,7 @@
         <v>0.01</v>
       </c>
       <c r="K11" s="3">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>16</v>
@@ -915,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>16</v>
@@ -953,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="3">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>16</v>
@@ -991,7 +984,7 @@
         <v>0.01</v>
       </c>
       <c r="K14" s="3">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>16</v>
@@ -1029,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>16</v>
@@ -1058,16 +1051,16 @@
         <v>82.1</v>
       </c>
       <c r="H16" s="3">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="K16" s="3">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>16</v>
@@ -1099,13 +1092,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" s="3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K17" s="3">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>16</v>
@@ -1143,7 +1136,7 @@
         <v>0.01</v>
       </c>
       <c r="K18" s="3">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>16</v>
@@ -1181,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="3">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>16</v>
@@ -1219,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>16</v>
@@ -1257,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>16</v>
@@ -1286,16 +1279,16 @@
         <v>82.4</v>
       </c>
       <c r="H22" s="3">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K22" s="3">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>16</v>
@@ -1327,13 +1320,13 @@
         <v>0.59</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K23" s="3">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>16</v>
@@ -1371,7 +1364,7 @@
         <v>0.01</v>
       </c>
       <c r="K24" s="3">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>16</v>
@@ -1409,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>16</v>
@@ -1438,16 +1431,16 @@
         <v>82.7</v>
       </c>
       <c r="H26" s="3">
-        <v>0.57999999999999996</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K26" s="3">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>16</v>
@@ -1479,13 +1472,13 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K27" s="3">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>16</v>
@@ -1514,37 +1507,95 @@
         <v>82.6</v>
       </c>
       <c r="H28" s="3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K28" s="3">
+        <v>28.7</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B29" s="3">
+        <v>99.5</v>
+      </c>
+      <c r="C29" s="3">
+        <v>105.5</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="G29" s="3">
+        <v>82.4</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="K29" s="3">
+        <v>28.6</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="2">
+        <v>44015</v>
+      </c>
+      <c r="B30" s="3">
+        <v>98.5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>104.5</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>81.5</v>
+      </c>
+      <c r="H30" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>28.9</v>
-      </c>
-      <c r="L28" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>18</v>
+      <c r="I30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="K30" s="3">
+        <v>28.3</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/exercise/운동기록.xlsx
+++ b/exercise/운동기록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Seung Jae Han\Dropbox\Trivia\운동기록\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8FC5E57-0341-47F6-AD96-3DEA0E9D67F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF0422A-C2DB-4B45-A536-24D2CCAA47FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="18">
   <si>
     <t>DATETIME</t>
   </si>
@@ -441,11 +441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1598,6 +1598,44 @@
         <v>16</v>
       </c>
     </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="2">
+        <v>44016</v>
+      </c>
+      <c r="B31" s="3">
+        <v>98.7</v>
+      </c>
+      <c r="C31" s="3">
+        <v>105</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3">
+        <v>0</v>
+      </c>
+      <c r="G31" s="3">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>28.4</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
